--- a/BasesEstados_desemprego.xlsx
+++ b/BasesEstados_desemprego.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
   <si>
     <t>Taxa de Desocupação</t>
   </si>
@@ -140,6 +140,123 @@
   </si>
   <si>
     <t>UF</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Amapa</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>Ceara</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>Espirito Santo</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>Goias</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Maranhao</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Para</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>Paraiba</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>Piaui</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Parana</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>Rondonia</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Sao Paulo</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>Sigla UF</t>
   </si>
 </sst>
 </file>
@@ -183,7 +300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -191,11 +308,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -231,6 +363,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,348 +661,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="11"/>
       <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="12">
+      <c r="M1" s="11"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="12">
         <v>6.4</v>
       </c>
-      <c r="C2" s="12">
+      <c r="D2" s="12">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D2" s="12">
+      <c r="E2" s="12">
         <v>4.2</v>
       </c>
-      <c r="E2" s="12">
+      <c r="F2" s="12">
         <v>5.6</v>
       </c>
-      <c r="F2" s="12">
+      <c r="G2" s="12">
         <v>7.9</v>
       </c>
-      <c r="G2" s="12">
+      <c r="H2" s="12">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H2" s="12">
+      <c r="I2" s="12">
         <v>9.1</v>
       </c>
-      <c r="I2" s="12">
+      <c r="J2" s="12">
         <v>8</v>
       </c>
-      <c r="J2" s="12">
+      <c r="K2" s="12">
         <v>10.4</v>
       </c>
-      <c r="K2" s="11"/>
       <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="2" t="s">
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12">
+      <c r="C3" s="12">
         <v>8.4</v>
       </c>
-      <c r="C3" s="12">
+      <c r="D3" s="12">
         <v>9</v>
       </c>
-      <c r="D3" s="12">
+      <c r="E3" s="12">
         <v>7.7</v>
       </c>
-      <c r="E3" s="12">
+      <c r="F3" s="12">
         <v>8.5</v>
       </c>
-      <c r="F3" s="12">
+      <c r="G3" s="12">
         <v>10.9</v>
       </c>
-      <c r="G3" s="12">
+      <c r="H3" s="12">
         <v>14.1</v>
       </c>
-      <c r="H3" s="12">
+      <c r="I3" s="12">
         <v>13.5</v>
       </c>
-      <c r="I3" s="12">
+      <c r="J3" s="12">
         <v>14.5</v>
       </c>
-      <c r="J3" s="12">
+      <c r="K3" s="12">
         <v>15.1</v>
       </c>
-      <c r="K3" s="11"/>
       <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="2" t="s">
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12">
+      <c r="C4" s="12">
         <v>9.5</v>
       </c>
-      <c r="C4" s="12">
+      <c r="D4" s="12">
         <v>9.1</v>
       </c>
-      <c r="D4" s="12">
+      <c r="E4" s="12">
         <v>7.7</v>
       </c>
-      <c r="E4" s="12">
+      <c r="F4" s="12">
         <v>9.5</v>
       </c>
-      <c r="F4" s="12">
+      <c r="G4" s="12">
         <v>13.6</v>
       </c>
-      <c r="G4" s="12">
+      <c r="H4" s="12">
         <v>15.7</v>
       </c>
-      <c r="H4" s="12">
+      <c r="I4" s="12">
         <v>13.9</v>
       </c>
-      <c r="I4" s="12">
+      <c r="J4" s="12">
         <v>14</v>
       </c>
-      <c r="J4" s="12">
+      <c r="K4" s="12">
         <v>15.8</v>
       </c>
-      <c r="K4" s="11"/>
       <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="2" t="s">
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="12">
+      <c r="C5" s="12">
         <v>7.6</v>
       </c>
-      <c r="C5" s="12">
+      <c r="D5" s="12">
         <v>8</v>
       </c>
-      <c r="D5" s="12">
+      <c r="E5" s="12">
         <v>6.3</v>
       </c>
-      <c r="E5" s="12">
+      <c r="F5" s="12">
         <v>8.5</v>
       </c>
-      <c r="F5" s="12">
+      <c r="G5" s="12">
         <v>8.8000000000000007</v>
       </c>
-      <c r="G5" s="12">
+      <c r="H5" s="12">
         <v>9.9</v>
       </c>
-      <c r="H5" s="12">
+      <c r="I5" s="12">
         <v>12.3</v>
       </c>
-      <c r="I5" s="12">
+      <c r="J5" s="12">
         <v>14.9</v>
       </c>
-      <c r="J5" s="12">
+      <c r="K5" s="12">
         <v>16.399999999999999</v>
       </c>
-      <c r="K5" s="11"/>
       <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="12">
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="12">
         <v>7.4</v>
       </c>
-      <c r="C6" s="12">
+      <c r="D6" s="12">
         <v>7.3</v>
       </c>
-      <c r="D6" s="12">
+      <c r="E6" s="12">
         <v>7.2</v>
       </c>
-      <c r="E6" s="12">
+      <c r="F6" s="12">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F6" s="12">
+      <c r="G6" s="12">
         <v>11.2</v>
       </c>
-      <c r="G6" s="12">
+      <c r="H6" s="12">
         <v>11.8</v>
       </c>
-      <c r="H6" s="12">
+      <c r="I6" s="12">
         <v>11.1</v>
       </c>
-      <c r="I6" s="12">
+      <c r="J6" s="12">
         <v>10.8</v>
       </c>
-      <c r="J6" s="12">
+      <c r="K6" s="12">
         <v>10.4</v>
       </c>
-      <c r="K6" s="11"/>
       <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="12">
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="12">
         <v>13.2</v>
       </c>
-      <c r="C7" s="12">
+      <c r="D7" s="12">
         <v>11.5</v>
       </c>
-      <c r="D7" s="12">
+      <c r="E7" s="12">
         <v>10.3</v>
       </c>
-      <c r="E7" s="12">
+      <c r="F7" s="12">
         <v>11</v>
       </c>
-      <c r="F7" s="12">
+      <c r="G7" s="12">
         <v>15.5</v>
       </c>
-      <c r="G7" s="12">
+      <c r="H7" s="12">
         <v>17.7</v>
       </c>
-      <c r="H7" s="12">
+      <c r="I7" s="12">
         <v>20.2</v>
       </c>
-      <c r="I7" s="12">
+      <c r="J7" s="12">
         <v>17.399999999999999</v>
       </c>
-      <c r="J7" s="12">
+      <c r="K7" s="12">
         <v>14.9</v>
       </c>
-      <c r="K7" s="11"/>
       <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="2" t="s">
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="12">
+      <c r="C8" s="12">
         <v>7.7</v>
-      </c>
-      <c r="C8" s="12">
-        <v>7.5</v>
       </c>
       <c r="D8" s="12">
         <v>7.5</v>
       </c>
       <c r="E8" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="F8" s="12">
         <v>8.6</v>
       </c>
-      <c r="F8" s="12">
+      <c r="G8" s="12">
         <v>11.5</v>
       </c>
-      <c r="G8" s="12">
+      <c r="H8" s="12">
         <v>11.7</v>
       </c>
-      <c r="H8" s="12">
+      <c r="I8" s="12">
         <v>10.6</v>
       </c>
-      <c r="I8" s="12">
+      <c r="J8" s="12">
         <v>10.8</v>
       </c>
-      <c r="J8" s="12">
+      <c r="K8" s="12">
         <v>11.6</v>
       </c>
-      <c r="K8" s="11"/>
       <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="12">
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="12">
         <v>8.1</v>
       </c>
-      <c r="C9" s="12">
+      <c r="D9" s="12">
         <v>7.9</v>
       </c>
-      <c r="D9" s="12">
+      <c r="E9" s="12">
         <v>6.8</v>
       </c>
-      <c r="E9" s="12">
+      <c r="F9" s="12">
         <v>8.6</v>
       </c>
-      <c r="F9" s="12">
+      <c r="G9" s="12">
         <v>11.9</v>
       </c>
-      <c r="G9" s="12">
+      <c r="H9" s="12">
         <v>14.3</v>
       </c>
-      <c r="H9" s="12">
+      <c r="I9" s="12">
         <v>14.4</v>
       </c>
-      <c r="I9" s="12">
+      <c r="J9" s="12">
         <v>14.3</v>
       </c>
-      <c r="J9" s="12">
+      <c r="K9" s="12">
         <v>15.9</v>
       </c>
-      <c r="K9" s="11"/>
       <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="12">
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="12">
         <v>6.9</v>
       </c>
-      <c r="C10" s="12">
+      <c r="D10" s="12">
         <v>7.5</v>
       </c>
-      <c r="D10" s="12">
+      <c r="E10" s="12">
         <v>6.5</v>
       </c>
-      <c r="E10" s="12">
+      <c r="F10" s="12">
         <v>7.6</v>
       </c>
-      <c r="F10" s="12">
+      <c r="G10" s="12">
         <v>9.4</v>
       </c>
-      <c r="G10" s="12">
+      <c r="H10" s="12">
         <v>12.9</v>
-      </c>
-      <c r="H10" s="12">
-        <v>12.8</v>
       </c>
       <c r="I10" s="12">
         <v>12.8</v>
@@ -874,620 +1036,677 @@
       <c r="J10" s="12">
         <v>12.8</v>
       </c>
-      <c r="K10" s="11"/>
+      <c r="K10" s="12">
+        <v>12.8</v>
+      </c>
       <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="2" t="s">
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="12">
+        <v>7.7</v>
+      </c>
+      <c r="D11" s="12">
+        <v>7.8</v>
+      </c>
+      <c r="E11" s="12">
+        <v>7.4</v>
+      </c>
+      <c r="F11" s="12">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G11" s="12">
         <v>12</v>
       </c>
-      <c r="B11" s="12">
-        <v>7.7</v>
-      </c>
-      <c r="C11" s="12">
-        <v>7.8</v>
-      </c>
-      <c r="D11" s="12">
-        <v>7.4</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="H11" s="12">
+        <v>12.6</v>
+      </c>
+      <c r="I11" s="12">
+        <v>11.3</v>
+      </c>
+      <c r="J11" s="12">
+        <v>10.9</v>
+      </c>
+      <c r="K11" s="12">
+        <v>13.2</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="12">
+        <v>11.4</v>
+      </c>
+      <c r="D12" s="12">
+        <v>10.7</v>
+      </c>
+      <c r="E12" s="12">
+        <v>11</v>
+      </c>
+      <c r="F12" s="12">
+        <v>12</v>
+      </c>
+      <c r="G12" s="12">
+        <v>14.2</v>
+      </c>
+      <c r="H12" s="12">
+        <v>14.5</v>
+      </c>
+      <c r="I12" s="12">
+        <v>13.6</v>
+      </c>
+      <c r="J12" s="12">
+        <v>13.1</v>
+      </c>
+      <c r="K12" s="12">
+        <v>15.8</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="12">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D13" s="12">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F11" s="12">
-        <v>12</v>
-      </c>
-      <c r="G11" s="12">
-        <v>12.6</v>
-      </c>
-      <c r="H11" s="12">
-        <v>11.3</v>
-      </c>
-      <c r="I11" s="12">
-        <v>10.9</v>
-      </c>
-      <c r="J11" s="12">
-        <v>13.2</v>
-      </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="12">
-        <v>11.4</v>
-      </c>
-      <c r="C12" s="12">
-        <v>10.7</v>
-      </c>
-      <c r="D12" s="12">
-        <v>11</v>
-      </c>
-      <c r="E12" s="12">
-        <v>12</v>
-      </c>
-      <c r="F12" s="12">
-        <v>14.2</v>
-      </c>
-      <c r="G12" s="12">
-        <v>14.5</v>
-      </c>
-      <c r="H12" s="12">
-        <v>13.6</v>
-      </c>
-      <c r="I12" s="12">
-        <v>13.1</v>
-      </c>
-      <c r="J12" s="12">
-        <v>15.8</v>
-      </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="12">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C13" s="12">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="D13" s="12">
+      <c r="E13" s="12">
         <v>8.9</v>
       </c>
-      <c r="E13" s="12">
+      <c r="F13" s="12">
         <v>9.5</v>
-      </c>
-      <c r="F13" s="12">
-        <v>11.4</v>
       </c>
       <c r="G13" s="12">
         <v>11.4</v>
       </c>
       <c r="H13" s="12">
+        <v>11.4</v>
+      </c>
+      <c r="I13" s="12">
         <v>11.1</v>
       </c>
-      <c r="I13" s="12">
+      <c r="J13" s="12">
         <v>11.6</v>
       </c>
-      <c r="J13" s="12">
+      <c r="K13" s="12">
         <v>14.6</v>
       </c>
-      <c r="K13" s="11"/>
       <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="2" t="s">
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="12">
+      <c r="C14" s="12">
         <v>9.1</v>
       </c>
-      <c r="C14" s="12">
+      <c r="D14" s="12">
         <v>9</v>
       </c>
-      <c r="D14" s="12">
+      <c r="E14" s="12">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E14" s="12">
+      <c r="F14" s="12">
         <v>9.9</v>
       </c>
-      <c r="F14" s="12">
+      <c r="G14" s="12">
         <v>14.6</v>
       </c>
-      <c r="G14" s="12">
+      <c r="H14" s="12">
         <v>17.7</v>
       </c>
-      <c r="H14" s="12">
+      <c r="I14" s="12">
         <v>16.7</v>
       </c>
-      <c r="I14" s="12">
+      <c r="J14" s="12">
         <v>15.5</v>
       </c>
-      <c r="J14" s="12">
+      <c r="K14" s="12">
         <v>16.8</v>
       </c>
-      <c r="K14" s="11"/>
       <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="2" t="s">
+      <c r="M14" s="11"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="12">
+      <c r="C15" s="12">
         <v>11.4</v>
       </c>
-      <c r="C15" s="12">
+      <c r="D15" s="12">
         <v>10.6</v>
       </c>
-      <c r="D15" s="12">
+      <c r="E15" s="12">
         <v>9.6</v>
       </c>
-      <c r="E15" s="12">
+      <c r="F15" s="12">
         <v>11.2</v>
       </c>
-      <c r="F15" s="12">
+      <c r="G15" s="12">
         <v>14.1</v>
       </c>
-      <c r="G15" s="12">
+      <c r="H15" s="12">
         <v>16.7</v>
       </c>
-      <c r="H15" s="12">
+      <c r="I15" s="12">
         <v>17</v>
       </c>
-      <c r="I15" s="12">
+      <c r="J15" s="12">
         <v>14.9</v>
       </c>
-      <c r="J15" s="12">
+      <c r="K15" s="12">
         <v>18.600000000000001</v>
       </c>
-      <c r="K15" s="11"/>
       <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="2" t="s">
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="B16" s="12">
-        <v>10.3</v>
       </c>
       <c r="C16" s="12">
         <v>10.3</v>
       </c>
       <c r="D16" s="12">
+        <v>10.3</v>
+      </c>
+      <c r="E16" s="12">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E16" s="12">
+      <c r="F16" s="12">
         <v>9.1</v>
       </c>
-      <c r="F16" s="12">
+      <c r="G16" s="12">
         <v>13.3</v>
       </c>
-      <c r="G16" s="12">
+      <c r="H16" s="12">
         <v>14.3</v>
       </c>
-      <c r="H16" s="12">
+      <c r="I16" s="12">
         <v>16.600000000000001</v>
       </c>
-      <c r="I16" s="12">
+      <c r="J16" s="12">
         <v>15.1</v>
       </c>
-      <c r="J16" s="12">
+      <c r="K16" s="12">
         <v>18.399999999999999</v>
       </c>
-      <c r="K16" s="11"/>
       <c r="L16" s="11"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="2" t="s">
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="12">
+      <c r="C17" s="12">
         <v>11.1</v>
       </c>
-      <c r="C17" s="12">
+      <c r="D17" s="12">
         <v>11.2</v>
       </c>
-      <c r="D17" s="12">
+      <c r="E17" s="12">
         <v>10.3</v>
       </c>
-      <c r="E17" s="12">
+      <c r="F17" s="12">
         <v>12.3</v>
       </c>
-      <c r="F17" s="12">
+      <c r="G17" s="12">
         <v>15.9</v>
-      </c>
-      <c r="G17" s="12">
-        <v>17</v>
       </c>
       <c r="H17" s="12">
         <v>17</v>
       </c>
       <c r="I17" s="12">
+        <v>17</v>
+      </c>
+      <c r="J17" s="12">
         <v>17.2</v>
       </c>
-      <c r="J17" s="12">
+      <c r="K17" s="12">
         <v>19.8</v>
       </c>
-      <c r="K17" s="11"/>
       <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="2" t="s">
+      <c r="M17" s="11"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="12">
+      <c r="C18" s="12">
         <v>6.9</v>
       </c>
-      <c r="C18" s="12">
+      <c r="D18" s="12">
         <v>6.6</v>
       </c>
-      <c r="D18" s="12">
+      <c r="E18" s="12">
         <v>6.7</v>
       </c>
-      <c r="E18" s="12">
+      <c r="F18" s="12">
         <v>8.5</v>
       </c>
-      <c r="F18" s="12">
+      <c r="G18" s="12">
         <v>11.1</v>
       </c>
-      <c r="G18" s="12">
+      <c r="H18" s="12">
         <v>12.2</v>
       </c>
-      <c r="H18" s="12">
+      <c r="I18" s="12">
         <v>10.7</v>
       </c>
-      <c r="I18" s="12">
+      <c r="J18" s="12">
         <v>10.1</v>
       </c>
-      <c r="J18" s="12">
+      <c r="K18" s="12">
         <v>12.5</v>
       </c>
-      <c r="K18" s="11"/>
       <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="12">
-        <v>7.1</v>
+      <c r="M18" s="11"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="C19" s="12">
         <v>7.1</v>
       </c>
       <c r="D19" s="12">
+        <v>7.1</v>
+      </c>
+      <c r="E19" s="12">
         <v>6.2</v>
       </c>
-      <c r="E19" s="12">
+      <c r="F19" s="12">
         <v>7.7</v>
       </c>
-      <c r="F19" s="12">
+      <c r="G19" s="12">
         <v>12.2</v>
       </c>
-      <c r="G19" s="12">
+      <c r="H19" s="12">
         <v>13.1</v>
       </c>
-      <c r="H19" s="12">
+      <c r="I19" s="12">
         <v>11.5</v>
       </c>
-      <c r="I19" s="12">
+      <c r="J19" s="12">
         <v>11</v>
       </c>
-      <c r="J19" s="12">
+      <c r="K19" s="12">
         <v>12.7</v>
       </c>
-      <c r="K19" s="11"/>
       <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="2" t="s">
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="12">
+      <c r="C20" s="12">
         <v>7.5</v>
       </c>
-      <c r="C20" s="12">
+      <c r="D20" s="12">
         <v>6.8</v>
       </c>
-      <c r="D20" s="12">
+      <c r="E20" s="12">
         <v>6.3</v>
       </c>
-      <c r="E20" s="12">
+      <c r="F20" s="12">
         <v>7.6</v>
       </c>
-      <c r="F20" s="12">
+      <c r="G20" s="12">
         <v>11.7</v>
       </c>
-      <c r="G20" s="12">
+      <c r="H20" s="12">
         <v>14.9</v>
       </c>
-      <c r="H20" s="12">
+      <c r="I20" s="12">
         <v>15</v>
       </c>
-      <c r="I20" s="12">
+      <c r="J20" s="12">
         <v>14.7</v>
       </c>
-      <c r="J20" s="12">
+      <c r="K20" s="12">
         <v>17.399999999999999</v>
       </c>
-      <c r="K20" s="11"/>
       <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="12">
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="12">
         <v>7.3</v>
       </c>
-      <c r="C21" s="12">
+      <c r="D21" s="12">
         <v>7.2</v>
       </c>
-      <c r="D21" s="12">
+      <c r="E21" s="12">
         <v>7.1</v>
       </c>
-      <c r="E21" s="12">
+      <c r="F21" s="12">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F21" s="12">
+      <c r="G21" s="12">
         <v>12.4</v>
       </c>
-      <c r="G21" s="12">
+      <c r="H21" s="12">
         <v>13.4</v>
       </c>
-      <c r="H21" s="12">
+      <c r="I21" s="12">
         <v>13.3</v>
       </c>
-      <c r="I21" s="12">
+      <c r="J21" s="12">
         <v>12.5</v>
       </c>
-      <c r="J21" s="12">
+      <c r="K21" s="12">
         <v>13.9</v>
       </c>
-      <c r="K21" s="11"/>
       <c r="L21" s="11"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="12">
+      <c r="M21" s="11"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="12">
         <v>5</v>
       </c>
-      <c r="C22" s="12">
+      <c r="D22" s="12">
         <v>4.3</v>
       </c>
-      <c r="D22" s="12">
+      <c r="E22" s="12">
         <v>4</v>
       </c>
-      <c r="E22" s="12">
+      <c r="F22" s="12">
         <v>5.9</v>
       </c>
-      <c r="F22" s="12">
+      <c r="G22" s="12">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G22" s="12">
+      <c r="H22" s="12">
         <v>9</v>
       </c>
-      <c r="H22" s="12">
+      <c r="I22" s="12">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I22" s="12">
+      <c r="J22" s="12">
         <v>8.5</v>
       </c>
-      <c r="J22" s="12">
+      <c r="K22" s="12">
         <v>9.4</v>
       </c>
-      <c r="K22" s="11"/>
       <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="2" t="s">
+      <c r="M22" s="11"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="12">
+      <c r="C23" s="12">
         <v>3.4</v>
       </c>
-      <c r="C23" s="12">
+      <c r="D23" s="12">
         <v>3.1</v>
       </c>
-      <c r="D23" s="12">
+      <c r="E23" s="12">
         <v>2.9</v>
       </c>
-      <c r="E23" s="12">
+      <c r="F23" s="12">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F23" s="12">
+      <c r="G23" s="12">
         <v>6.3</v>
       </c>
-      <c r="G23" s="12">
+      <c r="H23" s="12">
         <v>7.1</v>
       </c>
-      <c r="H23" s="12">
+      <c r="I23" s="12">
         <v>6.4</v>
-      </c>
-      <c r="I23" s="12">
-        <v>6.1</v>
       </c>
       <c r="J23" s="12">
         <v>6.1</v>
       </c>
-      <c r="K23" s="11"/>
+      <c r="K23" s="12">
+        <v>6.1</v>
+      </c>
       <c r="L23" s="11"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="2" t="s">
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="B24" s="12">
-        <v>4.8</v>
       </c>
       <c r="C24" s="12">
         <v>4.8</v>
       </c>
       <c r="D24" s="12">
+        <v>4.8</v>
+      </c>
+      <c r="E24" s="12">
         <v>5</v>
       </c>
-      <c r="E24" s="12">
+      <c r="F24" s="12">
         <v>6.2</v>
       </c>
-      <c r="F24" s="12">
+      <c r="G24" s="12">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G24" s="12">
+      <c r="H24" s="12">
         <v>8.4</v>
       </c>
-      <c r="H24" s="12">
+      <c r="I24" s="12">
         <v>8.1</v>
       </c>
-      <c r="I24" s="12">
+      <c r="J24" s="12">
         <v>8</v>
       </c>
-      <c r="J24" s="12">
+      <c r="K24" s="12">
         <v>9.1</v>
       </c>
-      <c r="K24" s="11"/>
       <c r="L24" s="11"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="2" t="s">
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="12">
+      <c r="C25" s="12">
         <v>6.1</v>
       </c>
-      <c r="C25" s="12">
+      <c r="D25" s="12">
         <v>4.7</v>
       </c>
-      <c r="D25" s="12">
+      <c r="E25" s="12">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E25" s="12">
+      <c r="F25" s="12">
         <v>6.1</v>
       </c>
-      <c r="F25" s="12">
+      <c r="G25" s="12">
         <v>7.7</v>
       </c>
-      <c r="G25" s="12">
+      <c r="H25" s="12">
         <v>8.5</v>
       </c>
-      <c r="H25" s="12">
+      <c r="I25" s="12">
         <v>7.6</v>
       </c>
-      <c r="I25" s="12">
+      <c r="J25" s="12">
         <v>8</v>
       </c>
-      <c r="J25" s="12">
+      <c r="K25" s="12">
         <v>10</v>
       </c>
-      <c r="K25" s="11"/>
       <c r="L25" s="11"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="2" t="s">
+      <c r="M25" s="11"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="12">
+      <c r="C26" s="12">
         <v>5.5</v>
       </c>
-      <c r="C26" s="12">
+      <c r="D26" s="12">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D26" s="12">
+      <c r="E26" s="12">
         <v>4</v>
       </c>
-      <c r="E26" s="12">
+      <c r="F26" s="12">
         <v>6.1</v>
       </c>
-      <c r="F26" s="12">
+      <c r="G26" s="12">
         <v>9.4</v>
       </c>
-      <c r="G26" s="12">
+      <c r="H26" s="12">
         <v>9</v>
       </c>
-      <c r="H26" s="12">
+      <c r="I26" s="12">
         <v>7.9</v>
       </c>
-      <c r="I26" s="12">
+      <c r="J26" s="12">
         <v>8</v>
       </c>
-      <c r="J26" s="12">
+      <c r="K26" s="12">
         <v>9.6999999999999993</v>
       </c>
-      <c r="K26" s="11"/>
       <c r="L26" s="11"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="12">
-        <v>5.4</v>
+      <c r="M26" s="11"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="C27" s="12">
         <v>5.4</v>
       </c>
       <c r="D27" s="12">
+        <v>5.4</v>
+      </c>
+      <c r="E27" s="12">
         <v>5.3</v>
       </c>
-      <c r="E27" s="12">
+      <c r="F27" s="12">
         <v>7.3</v>
       </c>
-      <c r="F27" s="12">
+      <c r="G27" s="12">
         <v>10.5</v>
       </c>
-      <c r="G27" s="12">
+      <c r="H27" s="12">
         <v>10.6</v>
       </c>
-      <c r="H27" s="12">
+      <c r="I27" s="12">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I27" s="12">
+      <c r="J27" s="12">
         <v>10.6</v>
       </c>
-      <c r="J27" s="12">
+      <c r="K27" s="12">
         <v>12.4</v>
       </c>
-      <c r="K27" s="11"/>
       <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="2" t="s">
+      <c r="M27" s="11"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="12">
+      <c r="C28" s="12">
         <v>8.6</v>
-      </c>
-      <c r="C28" s="12">
-        <v>9</v>
       </c>
       <c r="D28" s="12">
         <v>9</v>
       </c>
       <c r="E28" s="12">
+        <v>9</v>
+      </c>
+      <c r="F28" s="12">
         <v>10.1</v>
       </c>
-      <c r="F28" s="12">
+      <c r="G28" s="12">
         <v>12</v>
       </c>
-      <c r="G28" s="12">
+      <c r="H28" s="12">
         <v>13.2</v>
       </c>
-      <c r="H28" s="12">
+      <c r="I28" s="12">
         <v>12.7</v>
       </c>
-      <c r="I28" s="12">
+      <c r="J28" s="12">
         <v>13.4</v>
       </c>
-      <c r="J28" s="12">
+      <c r="K28" s="12">
         <v>14.8</v>
       </c>
-      <c r="K28" s="11"/>
       <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1505,32 +1724,32 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1"/>
